--- a/src/test/resources/testdata/Common/ProviderData.xlsx
+++ b/src/test/resources/testdata/Common/ProviderData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gnana\IdeaProjects\AssuredHealth\src\test\resources\testdataCMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gnana\IdeaProjects\AssuredHealth\src\test\resources\testdata\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,39 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>loginFailWithEmailDoesNotExist</t>
-  </si>
-  <si>
-    <t>cashierngan001@gmail.com</t>
-  </si>
-  <si>
-    <t>loginFailWithNullPassword</t>
-  </si>
-  <si>
-    <t>loginFailWithIncorrectPassword</t>
-  </si>
-  <si>
-    <t>customer@example.com</t>
-  </si>
-  <si>
-    <t>loginSuccessWithCustomerAccount</t>
-  </si>
-  <si>
-    <t>loginSuccessAdminPage</t>
-  </si>
-  <si>
-    <t>admin@example.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>cashierngan023@gmail.com</t>
+  </si>
+  <si>
+    <t>cashiernga01@gmail.com</t>
+  </si>
+  <si>
+    <t>abc12</t>
+  </si>
+  <si>
+    <t>abc32</t>
+  </si>
+  <si>
+    <t>abc@abc.com</t>
+  </si>
+  <si>
+    <t>12Bcd</t>
+  </si>
+  <si>
+    <t>bbcd@lk.com</t>
+  </si>
+  <si>
+    <t>789ght</t>
   </si>
 </sst>
 </file>
@@ -115,11 +112,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -396,91 +394,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="J11" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="I11" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>